--- a/BACKEND/aantik/preinscritos.xlsx
+++ b/BACKEND/aantik/preinscritos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Desktop\CiclosU\3-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\workspace-spring-tool-suite-4-4.11.0.RELEASE\aantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C66A23-D02E-4749-9B0E-3F27EF8A8405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6522CD79-565C-42CB-BF54-C59898430E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Por favor escribe tu número celular o en su defecto un teléfono de contacto</t>
   </si>
   <si>
-    <t>¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit...</t>
-  </si>
-  <si>
     <t>Luisa Fernanda Posada Uribe</t>
   </si>
   <si>
@@ -1735,6 +1732,9 @@
   </si>
   <si>
     <t>Correo institucional</t>
+  </si>
+  <si>
+    <t>¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit…</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1840,7 @@
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="¿Asististe en semestres anteriores al Taller Sentido Mi Práctica?" dataDxfId="3"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Si la respuesta en la pregunta 5 es SI, por favor diligencia la fecha de asistencia. En caso negativo dejar en blanco" dataDxfId="2"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Por favor escribe tu número celular o en su defecto un teléfono de contacto" dataDxfId="1"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit..." dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit…" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2145,11 +2145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="33.33203125" customWidth="1"/>
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2188,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2196,25 +2196,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2222,25 +2222,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2248,25 +2248,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2274,25 +2274,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2300,25 +2300,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2326,25 +2326,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2352,28 +2352,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2381,28 +2381,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2410,25 +2410,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2436,25 +2436,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2462,25 +2462,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2488,25 +2488,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2514,25 +2514,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2540,25 +2540,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2566,25 +2566,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2592,25 +2592,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2618,25 +2618,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2644,25 +2644,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2670,25 +2670,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2696,25 +2696,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2722,25 +2722,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2748,25 +2748,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2774,25 +2774,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2800,25 +2800,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2826,25 +2826,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2852,25 +2852,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2878,25 +2878,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2904,25 +2904,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2930,25 +2930,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2956,25 +2956,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2982,25 +2982,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -3008,25 +3008,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -3034,25 +3034,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -3060,25 +3060,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3086,25 +3086,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3112,25 +3112,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3138,25 +3138,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3164,25 +3164,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" t="s">
         <v>161</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -3190,25 +3190,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -3216,25 +3216,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -3242,25 +3242,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -3268,25 +3268,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
         <v>178</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>179</v>
-      </c>
       <c r="J43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3294,25 +3294,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="J44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -3320,25 +3320,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -3346,25 +3346,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="J46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -3372,25 +3372,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3398,25 +3398,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -3424,25 +3424,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -3450,25 +3450,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3476,25 +3476,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3502,28 +3502,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s">
         <v>214</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="I52" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="J52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3531,25 +3531,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3557,25 +3557,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3583,25 +3583,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="J55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3609,28 +3609,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s">
         <v>229</v>
       </c>
-      <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="I56" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="J56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3638,28 +3638,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s">
         <v>234</v>
       </c>
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="I57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3667,25 +3667,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3693,25 +3693,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3719,25 +3719,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3745,28 +3745,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s">
         <v>251</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3774,25 +3774,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3800,25 +3800,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="J63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3826,25 +3826,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="J64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3852,25 +3852,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="J65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3878,25 +3878,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="J66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3904,25 +3904,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="J67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3930,25 +3930,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3956,25 +3956,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3982,25 +3982,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="J70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -4008,28 +4008,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s">
         <v>289</v>
       </c>
-      <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="J71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -4037,28 +4037,28 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s">
-        <v>235</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="J72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -4066,25 +4066,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="J73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -4092,25 +4092,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -4118,25 +4118,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="J75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -4144,25 +4144,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4170,25 +4170,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="J77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4196,28 +4196,28 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s">
         <v>318</v>
       </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="I78" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" t="s">
         <v>320</v>
-      </c>
-      <c r="J78" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4225,25 +4225,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="J79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -4251,25 +4251,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>325</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -4277,25 +4277,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>329</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -4303,25 +4303,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="J82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -4329,25 +4329,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>337</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="J83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -4355,25 +4355,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="J84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -4381,25 +4381,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -4407,25 +4407,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="J86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -4433,25 +4433,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>353</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="J87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -4459,28 +4459,28 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88" t="s">
         <v>360</v>
       </c>
-      <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="I88" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="J88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -4488,25 +4488,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>362</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="J89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -4514,25 +4514,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="J90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4540,25 +4540,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>370</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="J91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4566,25 +4566,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>374</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="J92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4592,28 +4592,28 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>378</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s">
         <v>381</v>
       </c>
-      <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="J93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,25 +4621,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>383</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4647,28 +4647,28 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>387</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s">
         <v>390</v>
       </c>
-      <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" t="s">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="J95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4676,25 +4676,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>392</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4702,25 +4702,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>396</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4728,25 +4728,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4754,25 +4754,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4780,25 +4780,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>405</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="J100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4806,25 +4806,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>396</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="J101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4832,25 +4832,25 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>409</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="J102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4858,25 +4858,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="J103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4884,25 +4884,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>417</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4910,25 +4910,25 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F105" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4936,25 +4936,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>421</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4962,25 +4962,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>425</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="J107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4988,25 +4988,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>428</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="J108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -5014,25 +5014,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="J109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -5040,28 +5040,28 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>436</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>39</v>
+      </c>
+      <c r="H110" t="s">
         <v>439</v>
       </c>
-      <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="J110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -5069,25 +5069,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -5095,25 +5095,25 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>442</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J112" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -5121,25 +5121,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -5147,25 +5147,25 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>447</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -5173,25 +5173,25 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -5199,25 +5199,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>452</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="J116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -5225,28 +5225,28 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>456</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117" t="s">
         <v>459</v>
       </c>
-      <c r="F117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" t="s">
-        <v>40</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="I117" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="J117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -5254,25 +5254,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>461</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="J118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -5280,25 +5280,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>465</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="J119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -5306,25 +5306,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>469</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="J120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5332,25 +5332,25 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>473</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F121" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="J121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -5358,28 +5358,28 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>477</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>39</v>
+      </c>
+      <c r="H122" t="s">
         <v>480</v>
       </c>
-      <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>40</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>481</v>
       </c>
-      <c r="I122" t="s">
-        <v>482</v>
-      </c>
       <c r="J122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -5387,25 +5387,25 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>482</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="J123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5413,25 +5413,25 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>486</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="J124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5439,25 +5439,25 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>490</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="J125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5465,25 +5465,25 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>494</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="J126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -5491,25 +5491,25 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F127" t="s">
-        <v>27</v>
-      </c>
-      <c r="G127" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="J127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -5517,25 +5517,25 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>499</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="J128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -5543,25 +5543,25 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>503</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F129" t="s">
-        <v>27</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="J129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -5569,28 +5569,28 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5598,25 +5598,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5624,25 +5624,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>509</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5650,25 +5650,25 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>13</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="J133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5676,25 +5676,25 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="J134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5702,25 +5702,25 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="J135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5728,25 +5728,25 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5754,25 +5754,25 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" t="s">
         <v>178</v>
       </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>13</v>
-      </c>
-      <c r="I137" t="s">
-        <v>179</v>
-      </c>
       <c r="J137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5780,25 +5780,25 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="J138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5806,25 +5806,25 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>353</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>13</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="J139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5832,25 +5832,25 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>516</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="J140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5858,25 +5858,25 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>520</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>13</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="J141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5884,25 +5884,25 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="J142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5910,25 +5910,25 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="J143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5936,25 +5936,25 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>526</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F144" t="s">
-        <v>27</v>
-      </c>
-      <c r="G144" t="s">
-        <v>13</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5962,25 +5962,25 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>530</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>13</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="J145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5988,25 +5988,25 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>534</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="J146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -6014,25 +6014,25 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>538</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="J147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -6040,28 +6040,28 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>542</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
         <v>545</v>
       </c>
-      <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="I148" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="J148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -6069,25 +6069,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>547</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="J149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -6095,25 +6095,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>551</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="J150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -6121,25 +6121,25 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F151" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" t="s">
-        <v>13</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="J151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -6147,28 +6147,28 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>555</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>39</v>
+      </c>
+      <c r="H152" t="s">
         <v>558</v>
       </c>
-      <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s">
-        <v>40</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="I152" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="I152" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="J152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -6176,25 +6176,25 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>560</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F153" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="J153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -6202,28 +6202,28 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>560</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>39</v>
+      </c>
+      <c r="H154" t="s">
+        <v>564</v>
+      </c>
+      <c r="I154" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>40</v>
-      </c>
-      <c r="H154" t="s">
-        <v>565</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="J154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -6231,25 +6231,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>530</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F155" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="J155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6257,25 +6257,25 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="J156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -6283,25 +6283,25 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>566</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F157" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" t="s">
-        <v>13</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="J157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6309,25 +6309,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>409</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="J158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BACKEND/aantik/preinscritos.xlsx
+++ b/BACKEND/aantik/preinscritos.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\workspace-spring-tool-suite-4-4.11.0.RELEASE\aantik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\GitHub\AANTIK\BACKEND\aantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6522CD79-565C-42CB-BF54-C59898430E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F1081D-0725-4FE7-8EBA-4B319178A57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1786,7 +1797,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1829,18 +1843,19 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J158" totalsRowShown="0">
-  <autoFilter ref="A1:J158" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Nombre completo " dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{DE124EEB-5A38-4D4B-8F5F-B30C38CF7814}" name="Correo institucional"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ID de la Javeriana incluyendo los ceros y sin puntos" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Cédula de ciudadanía (sin puntos ó comas)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Materia a matricular en 2022-30" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="¿Asististe en semestres anteriores al Taller Sentido Mi Práctica?" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Si la respuesta en la pregunta 5 es SI, por favor diligencia la fecha de asistencia. En caso negativo dejar en blanco" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Por favor escribe tu número celular o en su defecto un teléfono de contacto" dataDxfId="1"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit…" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Nombre completo " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{DE124EEB-5A38-4D4B-8F5F-B30C38CF7814}" name="Correo institucional" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ID de la Javeriana incluyendo los ceros y sin puntos" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Cédula de ciudadanía (sin puntos ó comas)" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Materia a matricular en 2022-30" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="¿Asististe en semestres anteriores al Taller Sentido Mi Práctica?" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Si la respuesta en la pregunta 5 es SI, por favor diligencia la fecha de asistencia. En caso negativo dejar en blanco" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Por favor escribe tu número celular o en su defecto un teléfono de contacto" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit…" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2145,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,6 +2213,10 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="2" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Luisa@prueba.com</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2224,6 +2243,10 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Isabe@prueba.com</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2250,6 +2273,10 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
+      <c r="C4" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Valer@prueba.com</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2276,6 +2303,10 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
+      <c r="C5" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Valer@prueba.com</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2302,6 +2333,10 @@
       <c r="B6" t="s">
         <v>28</v>
       </c>
+      <c r="C6" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sara @prueba.com</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2328,6 +2363,10 @@
       <c r="B7" t="s">
         <v>32</v>
       </c>
+      <c r="C7" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Linda@prueba.com</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2354,6 +2393,10 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Luis @prueba.com</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2383,6 +2426,10 @@
       <c r="B9" t="s">
         <v>42</v>
       </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jose @prueba.com</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2412,6 +2459,10 @@
       <c r="B10" t="s">
         <v>47</v>
       </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Gabri@prueba.com</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2438,6 +2489,10 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Lina @prueba.com</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
@@ -2464,6 +2519,10 @@
       <c r="B12" t="s">
         <v>55</v>
       </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>nicol@prueba.com</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2489,6 +2548,10 @@
       </c>
       <c r="B13" t="s">
         <v>59</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Esteb@prueba.com</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
@@ -2516,6 +2579,10 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
+      <c r="C14" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
@@ -2541,6 +2608,10 @@
       </c>
       <c r="B15" t="s">
         <v>67</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Andre@prueba.com</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>68</v>
@@ -2568,6 +2639,10 @@
       <c r="B16" t="s">
         <v>71</v>
       </c>
+      <c r="C16" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maira@prueba.com</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2594,6 +2669,10 @@
       <c r="B17" t="s">
         <v>75</v>
       </c>
+      <c r="C17" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>ANGEL@prueba.com</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2620,6 +2699,10 @@
       <c r="B18" t="s">
         <v>79</v>
       </c>
+      <c r="C18" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Ximen@prueba.com</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
@@ -2646,6 +2729,10 @@
       <c r="B19" t="s">
         <v>83</v>
       </c>
+      <c r="C19" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>84</v>
       </c>
@@ -2672,6 +2759,10 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
+      <c r="C20" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
@@ -2698,6 +2789,10 @@
       <c r="B21" t="s">
         <v>91</v>
       </c>
+      <c r="C21" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Duvan@prueba.com</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2724,6 +2819,10 @@
       <c r="B22" t="s">
         <v>95</v>
       </c>
+      <c r="C22" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
@@ -2750,6 +2849,10 @@
       <c r="B23" t="s">
         <v>99</v>
       </c>
+      <c r="C23" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sergi@prueba.com</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>100</v>
       </c>
@@ -2776,6 +2879,10 @@
       <c r="B24" t="s">
         <v>103</v>
       </c>
+      <c r="C24" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>104</v>
       </c>
@@ -2802,6 +2909,10 @@
       <c r="B25" t="s">
         <v>107</v>
       </c>
+      <c r="C25" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
@@ -2828,6 +2939,10 @@
       <c r="B26" t="s">
         <v>111</v>
       </c>
+      <c r="C26" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Tábat@prueba.com</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>112</v>
       </c>
@@ -2854,6 +2969,10 @@
       <c r="B27" t="s">
         <v>115</v>
       </c>
+      <c r="C27" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jorge@prueba.com</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>116</v>
       </c>
@@ -2880,6 +2999,10 @@
       <c r="B28" t="s">
         <v>119</v>
       </c>
+      <c r="C28" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Julia@prueba.com</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>120</v>
       </c>
@@ -2906,6 +3029,10 @@
       <c r="B29" t="s">
         <v>75</v>
       </c>
+      <c r="C29" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>ANGEL@prueba.com</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2932,6 +3059,10 @@
       <c r="B30" t="s">
         <v>123</v>
       </c>
+      <c r="C30" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Aleja@prueba.com</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>124</v>
       </c>
@@ -2958,6 +3089,10 @@
       <c r="B31" t="s">
         <v>127</v>
       </c>
+      <c r="C31" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juani@prueba.com</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>128</v>
       </c>
@@ -2984,6 +3119,10 @@
       <c r="B32" t="s">
         <v>131</v>
       </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Catal@prueba.com</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>132</v>
       </c>
@@ -3010,6 +3149,10 @@
       <c r="B33" t="s">
         <v>135</v>
       </c>
+      <c r="C33" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>136</v>
       </c>
@@ -3036,6 +3179,10 @@
       <c r="B34" t="s">
         <v>139</v>
       </c>
+      <c r="C34" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>André@prueba.com</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>140</v>
       </c>
@@ -3062,6 +3209,10 @@
       <c r="B35" t="s">
         <v>143</v>
       </c>
+      <c r="C35" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Julia@prueba.com</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>144</v>
       </c>
@@ -3088,6 +3239,10 @@
       <c r="B36" t="s">
         <v>147</v>
       </c>
+      <c r="C36" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>148</v>
       </c>
@@ -3114,6 +3269,10 @@
       <c r="B37" t="s">
         <v>151</v>
       </c>
+      <c r="C37" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>152</v>
       </c>
@@ -3140,6 +3299,10 @@
       <c r="B38" t="s">
         <v>155</v>
       </c>
+      <c r="C38" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>156</v>
       </c>
@@ -3166,6 +3329,10 @@
       <c r="B39" t="s">
         <v>159</v>
       </c>
+      <c r="C39" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Willi@prueba.com</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>160</v>
       </c>
@@ -3192,6 +3359,10 @@
       <c r="B40" t="s">
         <v>163</v>
       </c>
+      <c r="C40" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>María@prueba.com</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>164</v>
       </c>
@@ -3218,6 +3389,10 @@
       <c r="B41" t="s">
         <v>167</v>
       </c>
+      <c r="C41" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Emili@prueba.com</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>168</v>
       </c>
@@ -3244,6 +3419,10 @@
       <c r="B42" t="s">
         <v>171</v>
       </c>
+      <c r="C42" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Santi@prueba.com</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>172</v>
       </c>
@@ -3270,6 +3449,10 @@
       <c r="B43" t="s">
         <v>175</v>
       </c>
+      <c r="C43" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>176</v>
       </c>
@@ -3296,6 +3479,10 @@
       <c r="B44" t="s">
         <v>179</v>
       </c>
+      <c r="C44" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Adria@prueba.com</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>180</v>
       </c>
@@ -3322,6 +3509,10 @@
       <c r="B45" t="s">
         <v>183</v>
       </c>
+      <c r="C45" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sofia@prueba.com</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>184</v>
       </c>
@@ -3348,6 +3539,10 @@
       <c r="B46" t="s">
         <v>187</v>
       </c>
+      <c r="C46" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sofia@prueba.com</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>188</v>
       </c>
@@ -3374,6 +3569,10 @@
       <c r="B47" t="s">
         <v>191</v>
       </c>
+      <c r="C47" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sandr@prueba.com</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>192</v>
       </c>
@@ -3400,6 +3599,10 @@
       <c r="B48" t="s">
         <v>195</v>
       </c>
+      <c r="C48" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>196</v>
       </c>
@@ -3426,6 +3629,10 @@
       <c r="B49" t="s">
         <v>199</v>
       </c>
+      <c r="C49" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Carol@prueba.com</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>200</v>
       </c>
@@ -3452,6 +3659,10 @@
       <c r="B50" t="s">
         <v>203</v>
       </c>
+      <c r="C50" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Samue@prueba.com</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>204</v>
       </c>
@@ -3478,6 +3689,10 @@
       <c r="B51" t="s">
         <v>207</v>
       </c>
+      <c r="C51" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>208</v>
       </c>
@@ -3504,6 +3719,10 @@
       <c r="B52" t="s">
         <v>211</v>
       </c>
+      <c r="C52" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>212</v>
       </c>
@@ -3533,6 +3752,10 @@
       <c r="B53" t="s">
         <v>216</v>
       </c>
+      <c r="C53" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>André@prueba.com</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>140</v>
       </c>
@@ -3559,6 +3782,10 @@
       <c r="B54" t="s">
         <v>218</v>
       </c>
+      <c r="C54" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Mateo@prueba.com</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>219</v>
       </c>
@@ -3585,6 +3812,10 @@
       <c r="B55" t="s">
         <v>222</v>
       </c>
+      <c r="C55" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Lucia@prueba.com</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>223</v>
       </c>
@@ -3611,6 +3842,10 @@
       <c r="B56" t="s">
         <v>226</v>
       </c>
+      <c r="C56" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>227</v>
       </c>
@@ -3640,6 +3875,10 @@
       <c r="B57" t="s">
         <v>231</v>
       </c>
+      <c r="C57" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>232</v>
       </c>
@@ -3669,6 +3908,10 @@
       <c r="B58" t="s">
         <v>236</v>
       </c>
+      <c r="C58" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>237</v>
       </c>
@@ -3695,6 +3938,10 @@
       <c r="B59" t="s">
         <v>240</v>
       </c>
+      <c r="C59" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>241</v>
       </c>
@@ -3721,6 +3968,10 @@
       <c r="B60" t="s">
         <v>244</v>
       </c>
+      <c r="C60" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Vivia@prueba.com</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>245</v>
       </c>
@@ -3747,6 +3998,10 @@
       <c r="B61" t="s">
         <v>248</v>
       </c>
+      <c r="C61" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>249</v>
       </c>
@@ -3776,6 +4031,10 @@
       <c r="B62" t="s">
         <v>253</v>
       </c>
+      <c r="C62" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Santi@prueba.com</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>254</v>
       </c>
@@ -3802,6 +4061,10 @@
       <c r="B63" t="s">
         <v>257</v>
       </c>
+      <c r="C63" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>258</v>
       </c>
@@ -3828,6 +4091,10 @@
       <c r="B64" t="s">
         <v>261</v>
       </c>
+      <c r="C64" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Crist@prueba.com</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>262</v>
       </c>
@@ -3854,6 +4121,10 @@
       <c r="B65" t="s">
         <v>265</v>
       </c>
+      <c r="C65" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Crist@prueba.com</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>262</v>
       </c>
@@ -3880,6 +4151,10 @@
       <c r="B66" t="s">
         <v>266</v>
       </c>
+      <c r="C66" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Wendy@prueba.com</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>267</v>
       </c>
@@ -3906,6 +4181,10 @@
       <c r="B67" t="s">
         <v>270</v>
       </c>
+      <c r="C67" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Janny@prueba.com</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>271</v>
       </c>
@@ -3932,6 +4211,10 @@
       <c r="B68" t="s">
         <v>274</v>
       </c>
+      <c r="C68" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>275</v>
       </c>
@@ -3958,6 +4241,10 @@
       <c r="B69" t="s">
         <v>278</v>
       </c>
+      <c r="C69" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Julia@prueba.com</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>279</v>
       </c>
@@ -3984,6 +4271,10 @@
       <c r="B70" t="s">
         <v>282</v>
       </c>
+      <c r="C70" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>CARLO@prueba.com</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>283</v>
       </c>
@@ -4010,6 +4301,10 @@
       <c r="B71" t="s">
         <v>286</v>
       </c>
+      <c r="C71" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sabri@prueba.com</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>287</v>
       </c>
@@ -4039,6 +4334,10 @@
       <c r="B72" t="s">
         <v>291</v>
       </c>
+      <c r="C72" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jorge@prueba.com</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>292</v>
       </c>
@@ -4068,6 +4367,10 @@
       <c r="B73" t="s">
         <v>295</v>
       </c>
+      <c r="C73" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sofia@prueba.com</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>296</v>
       </c>
@@ -4094,6 +4397,10 @@
       <c r="B74" t="s">
         <v>299</v>
       </c>
+      <c r="C74" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Ana M@prueba.com</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>300</v>
       </c>
@@ -4120,6 +4427,10 @@
       <c r="B75" t="s">
         <v>303</v>
       </c>
+      <c r="C75" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Chels@prueba.com</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>304</v>
       </c>
@@ -4146,6 +4457,10 @@
       <c r="B76" t="s">
         <v>307</v>
       </c>
+      <c r="C76" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>MARIA@prueba.com</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>308</v>
       </c>
@@ -4172,6 +4487,10 @@
       <c r="B77" t="s">
         <v>311</v>
       </c>
+      <c r="C77" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>312</v>
       </c>
@@ -4198,6 +4517,10 @@
       <c r="B78" t="s">
         <v>315</v>
       </c>
+      <c r="C78" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Alfre@prueba.com</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>316</v>
       </c>
@@ -4227,6 +4550,10 @@
       <c r="B79" t="s">
         <v>321</v>
       </c>
+      <c r="C79" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Vivia@prueba.com</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>322</v>
       </c>
@@ -4253,6 +4580,10 @@
       <c r="B80" t="s">
         <v>325</v>
       </c>
+      <c r="C80" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Erika@prueba.com</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>326</v>
       </c>
@@ -4279,6 +4610,10 @@
       <c r="B81" t="s">
         <v>329</v>
       </c>
+      <c r="C81" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Julia@prueba.com</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>330</v>
       </c>
@@ -4305,6 +4640,10 @@
       <c r="B82" t="s">
         <v>333</v>
       </c>
+      <c r="C82" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>334</v>
       </c>
@@ -4331,6 +4670,10 @@
       <c r="B83" t="s">
         <v>337</v>
       </c>
+      <c r="C83" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>338</v>
       </c>
@@ -4357,6 +4700,10 @@
       <c r="B84" t="s">
         <v>341</v>
       </c>
+      <c r="C84" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Ana M@prueba.com</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>342</v>
       </c>
@@ -4383,6 +4730,10 @@
       <c r="B85" t="s">
         <v>345</v>
       </c>
+      <c r="C85" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>David@prueba.com</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>346</v>
       </c>
@@ -4409,6 +4760,10 @@
       <c r="B86" t="s">
         <v>349</v>
       </c>
+      <c r="C86" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Gabri@prueba.com</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>350</v>
       </c>
@@ -4435,6 +4790,10 @@
       <c r="B87" t="s">
         <v>353</v>
       </c>
+      <c r="C87" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>354</v>
       </c>
@@ -4461,6 +4820,10 @@
       <c r="B88" t="s">
         <v>357</v>
       </c>
+      <c r="C88" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Miche@prueba.com</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>358</v>
       </c>
@@ -4490,6 +4853,10 @@
       <c r="B89" t="s">
         <v>362</v>
       </c>
+      <c r="C89" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Paula@prueba.com</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>363</v>
       </c>
@@ -4516,6 +4883,10 @@
       <c r="B90" t="s">
         <v>366</v>
       </c>
+      <c r="C90" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Santi@prueba.com</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>367</v>
       </c>
@@ -4542,6 +4913,10 @@
       <c r="B91" t="s">
         <v>370</v>
       </c>
+      <c r="C91" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Giova@prueba.com</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>371</v>
       </c>
@@ -4568,6 +4943,10 @@
       <c r="B92" t="s">
         <v>374</v>
       </c>
+      <c r="C92" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Melis@prueba.com</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>375</v>
       </c>
@@ -4594,6 +4973,10 @@
       <c r="B93" t="s">
         <v>378</v>
       </c>
+      <c r="C93" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>379</v>
       </c>
@@ -4623,6 +5006,10 @@
       <c r="B94" t="s">
         <v>383</v>
       </c>
+      <c r="C94" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>384</v>
       </c>
@@ -4649,6 +5036,10 @@
       <c r="B95" t="s">
         <v>387</v>
       </c>
+      <c r="C95" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Manue@prueba.com</v>
+      </c>
       <c r="D95" s="1" t="s">
         <v>388</v>
       </c>
@@ -4678,6 +5069,10 @@
       <c r="B96" t="s">
         <v>392</v>
       </c>
+      <c r="C96" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juliá@prueba.com</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>393</v>
       </c>
@@ -4704,6 +5099,10 @@
       <c r="B97" t="s">
         <v>396</v>
       </c>
+      <c r="C97" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Aleja@prueba.com</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>397</v>
       </c>
@@ -4730,6 +5129,10 @@
       <c r="B98" t="s">
         <v>400</v>
       </c>
+      <c r="C98" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D98" s="1" t="s">
         <v>64</v>
       </c>
@@ -4756,6 +5159,10 @@
       <c r="B99" t="s">
         <v>401</v>
       </c>
+      <c r="C99" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>402</v>
       </c>
@@ -4782,6 +5189,10 @@
       <c r="B100" t="s">
         <v>405</v>
       </c>
+      <c r="C100" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D100" s="1" t="s">
         <v>406</v>
       </c>
@@ -4808,6 +5219,10 @@
       <c r="B101" t="s">
         <v>396</v>
       </c>
+      <c r="C101" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Aleja@prueba.com</v>
+      </c>
       <c r="D101" s="1" t="s">
         <v>397</v>
       </c>
@@ -4834,6 +5249,10 @@
       <c r="B102" t="s">
         <v>409</v>
       </c>
+      <c r="C102" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>André@prueba.com</v>
+      </c>
       <c r="D102" s="1" t="s">
         <v>410</v>
       </c>
@@ -4860,6 +5279,10 @@
       <c r="B103" t="s">
         <v>413</v>
       </c>
+      <c r="C103" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Catal@prueba.com</v>
+      </c>
       <c r="D103" s="1" t="s">
         <v>414</v>
       </c>
@@ -4886,6 +5309,10 @@
       <c r="B104" t="s">
         <v>417</v>
       </c>
+      <c r="C104" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Angel@prueba.com</v>
+      </c>
       <c r="D104" s="1" t="s">
         <v>418</v>
       </c>
@@ -4912,6 +5339,10 @@
       <c r="B105" t="s">
         <v>79</v>
       </c>
+      <c r="C105" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Ximen@prueba.com</v>
+      </c>
       <c r="D105" s="1" t="s">
         <v>80</v>
       </c>
@@ -4938,6 +5369,10 @@
       <c r="B106" t="s">
         <v>421</v>
       </c>
+      <c r="C106" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>César@prueba.com</v>
+      </c>
       <c r="D106" s="1" t="s">
         <v>422</v>
       </c>
@@ -4964,6 +5399,10 @@
       <c r="B107" t="s">
         <v>425</v>
       </c>
+      <c r="C107" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>juan @prueba.com</v>
+      </c>
       <c r="D107" s="1" t="s">
         <v>426</v>
       </c>
@@ -4990,6 +5429,10 @@
       <c r="B108" t="s">
         <v>428</v>
       </c>
+      <c r="C108" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D108" s="1" t="s">
         <v>429</v>
       </c>
@@ -5016,6 +5459,10 @@
       <c r="B109" t="s">
         <v>432</v>
       </c>
+      <c r="C109" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nesto@prueba.com</v>
+      </c>
       <c r="D109" s="1" t="s">
         <v>433</v>
       </c>
@@ -5042,6 +5489,10 @@
       <c r="B110" t="s">
         <v>436</v>
       </c>
+      <c r="C110" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Saulo@prueba.com</v>
+      </c>
       <c r="D110" s="1" t="s">
         <v>437</v>
       </c>
@@ -5071,6 +5522,10 @@
       <c r="B111" t="s">
         <v>103</v>
       </c>
+      <c r="C111" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D111" s="1" t="s">
         <v>441</v>
       </c>
@@ -5097,6 +5552,10 @@
       <c r="B112" t="s">
         <v>442</v>
       </c>
+      <c r="C112" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D112" s="1" t="s">
         <v>443</v>
       </c>
@@ -5123,6 +5582,10 @@
       <c r="B113" t="s">
         <v>442</v>
       </c>
+      <c r="C113" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D113" s="1" t="s">
         <v>446</v>
       </c>
@@ -5149,6 +5612,10 @@
       <c r="B114" t="s">
         <v>447</v>
       </c>
+      <c r="C114" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D114" s="1" t="s">
         <v>448</v>
       </c>
@@ -5175,6 +5642,10 @@
       <c r="B115" t="s">
         <v>67</v>
       </c>
+      <c r="C115" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Andre@prueba.com</v>
+      </c>
       <c r="D115" s="1" t="s">
         <v>68</v>
       </c>
@@ -5201,6 +5672,10 @@
       <c r="B116" t="s">
         <v>452</v>
       </c>
+      <c r="C116" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D116" s="1" t="s">
         <v>453</v>
       </c>
@@ -5227,6 +5702,10 @@
       <c r="B117" t="s">
         <v>456</v>
       </c>
+      <c r="C117" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D117" s="1" t="s">
         <v>457</v>
       </c>
@@ -5256,6 +5735,10 @@
       <c r="B118" t="s">
         <v>461</v>
       </c>
+      <c r="C118" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
       <c r="D118" s="1" t="s">
         <v>462</v>
       </c>
@@ -5282,6 +5765,10 @@
       <c r="B119" t="s">
         <v>465</v>
       </c>
+      <c r="C119" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D119" s="1" t="s">
         <v>466</v>
       </c>
@@ -5308,6 +5795,10 @@
       <c r="B120" t="s">
         <v>469</v>
       </c>
+      <c r="C120" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Santi@prueba.com</v>
+      </c>
       <c r="D120" s="1" t="s">
         <v>470</v>
       </c>
@@ -5334,6 +5825,10 @@
       <c r="B121" t="s">
         <v>473</v>
       </c>
+      <c r="C121" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
       <c r="D121" s="1" t="s">
         <v>474</v>
       </c>
@@ -5360,6 +5855,10 @@
       <c r="B122" t="s">
         <v>477</v>
       </c>
+      <c r="C122" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Valen@prueba.com</v>
+      </c>
       <c r="D122" s="1" t="s">
         <v>478</v>
       </c>
@@ -5389,6 +5888,10 @@
       <c r="B123" t="s">
         <v>482</v>
       </c>
+      <c r="C123" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Franc@prueba.com</v>
+      </c>
       <c r="D123" s="1" t="s">
         <v>483</v>
       </c>
@@ -5415,6 +5918,10 @@
       <c r="B124" t="s">
         <v>486</v>
       </c>
+      <c r="C124" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Martí@prueba.com</v>
+      </c>
       <c r="D124" s="1" t="s">
         <v>487</v>
       </c>
@@ -5441,6 +5948,10 @@
       <c r="B125" t="s">
         <v>490</v>
       </c>
+      <c r="C125" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D125" s="1" t="s">
         <v>491</v>
       </c>
@@ -5467,6 +5978,10 @@
       <c r="B126" t="s">
         <v>494</v>
       </c>
+      <c r="C126" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>David@prueba.com</v>
+      </c>
       <c r="D126" s="1" t="s">
         <v>495</v>
       </c>
@@ -5493,6 +6008,10 @@
       <c r="B127" t="s">
         <v>473</v>
       </c>
+      <c r="C127" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
       <c r="D127" s="1" t="s">
         <v>498</v>
       </c>
@@ -5519,6 +6038,10 @@
       <c r="B128" t="s">
         <v>499</v>
       </c>
+      <c r="C128" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Bryan@prueba.com</v>
+      </c>
       <c r="D128" s="1" t="s">
         <v>500</v>
       </c>
@@ -5545,6 +6068,10 @@
       <c r="B129" t="s">
         <v>503</v>
       </c>
+      <c r="C129" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Carlo@prueba.com</v>
+      </c>
       <c r="D129" s="1" t="s">
         <v>504</v>
       </c>
@@ -5571,6 +6098,10 @@
       <c r="B130" t="s">
         <v>211</v>
       </c>
+      <c r="C130" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D130" s="1" t="s">
         <v>212</v>
       </c>
@@ -5600,6 +6131,10 @@
       <c r="B131" t="s">
         <v>508</v>
       </c>
+      <c r="C131" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D131" s="1" t="s">
         <v>441</v>
       </c>
@@ -5626,6 +6161,10 @@
       <c r="B132" t="s">
         <v>509</v>
       </c>
+      <c r="C132" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Willi@prueba.com</v>
+      </c>
       <c r="D132" s="1" t="s">
         <v>160</v>
       </c>
@@ -5652,6 +6191,10 @@
       <c r="B133" t="s">
         <v>511</v>
       </c>
+      <c r="C133" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
       <c r="D133" s="1" t="s">
         <v>108</v>
       </c>
@@ -5678,6 +6221,10 @@
       <c r="B134" t="s">
         <v>512</v>
       </c>
+      <c r="C134" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D134" s="1" t="s">
         <v>448</v>
       </c>
@@ -5704,6 +6251,10 @@
       <c r="B135" t="s">
         <v>513</v>
       </c>
+      <c r="C135" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Chels@prueba.com</v>
+      </c>
       <c r="D135" s="1" t="s">
         <v>304</v>
       </c>
@@ -5730,6 +6281,10 @@
       <c r="B136" t="s">
         <v>111</v>
       </c>
+      <c r="C136" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Tábat@prueba.com</v>
+      </c>
       <c r="D136" s="1" t="s">
         <v>112</v>
       </c>
@@ -5756,6 +6311,10 @@
       <c r="B137" t="s">
         <v>514</v>
       </c>
+      <c r="C137" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
       <c r="D137" s="1" t="s">
         <v>176</v>
       </c>
@@ -5782,6 +6341,10 @@
       <c r="B138" t="s">
         <v>515</v>
       </c>
+      <c r="C138" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jorge@prueba.com</v>
+      </c>
       <c r="D138" s="1" t="s">
         <v>116</v>
       </c>
@@ -5808,6 +6371,10 @@
       <c r="B139" t="s">
         <v>353</v>
       </c>
+      <c r="C139" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
       <c r="D139" s="1" t="s">
         <v>354</v>
       </c>
@@ -5834,6 +6401,10 @@
       <c r="B140" t="s">
         <v>516</v>
       </c>
+      <c r="C140" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D140" s="1" t="s">
         <v>517</v>
       </c>
@@ -5860,6 +6431,10 @@
       <c r="B141" t="s">
         <v>520</v>
       </c>
+      <c r="C141" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Aleja@prueba.com</v>
+      </c>
       <c r="D141" s="1" t="s">
         <v>521</v>
       </c>
@@ -5886,6 +6461,10 @@
       <c r="B142" t="s">
         <v>524</v>
       </c>
+      <c r="C142" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
       <c r="D142" s="1" t="s">
         <v>338</v>
       </c>
@@ -5912,6 +6491,10 @@
       <c r="B143" t="s">
         <v>525</v>
       </c>
+      <c r="C143" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D143" s="1" t="s">
         <v>241</v>
       </c>
@@ -5938,6 +6521,10 @@
       <c r="B144" t="s">
         <v>526</v>
       </c>
+      <c r="C144" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Felip@prueba.com</v>
+      </c>
       <c r="D144" s="1" t="s">
         <v>527</v>
       </c>
@@ -5964,6 +6551,10 @@
       <c r="B145" t="s">
         <v>530</v>
       </c>
+      <c r="C145" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jorge@prueba.com</v>
+      </c>
       <c r="D145" s="1" t="s">
         <v>531</v>
       </c>
@@ -5990,6 +6581,10 @@
       <c r="B146" t="s">
         <v>534</v>
       </c>
+      <c r="C146" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
       <c r="D146" s="1" t="s">
         <v>535</v>
       </c>
@@ -6016,6 +6611,10 @@
       <c r="B147" t="s">
         <v>538</v>
       </c>
+      <c r="C147" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Andre@prueba.com</v>
+      </c>
       <c r="D147" s="1" t="s">
         <v>539</v>
       </c>
@@ -6042,6 +6641,10 @@
       <c r="B148" t="s">
         <v>542</v>
       </c>
+      <c r="C148" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Simón@prueba.com</v>
+      </c>
       <c r="D148" s="1" t="s">
         <v>543</v>
       </c>
@@ -6071,6 +6674,10 @@
       <c r="B149" t="s">
         <v>547</v>
       </c>
+      <c r="C149" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jonat@prueba.com</v>
+      </c>
       <c r="D149" s="1" t="s">
         <v>548</v>
       </c>
@@ -6097,6 +6704,10 @@
       <c r="B150" t="s">
         <v>551</v>
       </c>
+      <c r="C150" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Mateo@prueba.com</v>
+      </c>
       <c r="D150" s="1" t="s">
         <v>552</v>
       </c>
@@ -6123,6 +6734,10 @@
       <c r="B151" t="s">
         <v>442</v>
       </c>
+      <c r="C151" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
       <c r="D151" s="1" t="s">
         <v>446</v>
       </c>
@@ -6149,6 +6764,10 @@
       <c r="B152" t="s">
         <v>555</v>
       </c>
+      <c r="C152" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Migue@prueba.com</v>
+      </c>
       <c r="D152" s="1" t="s">
         <v>556</v>
       </c>
@@ -6178,6 +6797,10 @@
       <c r="B153" t="s">
         <v>560</v>
       </c>
+      <c r="C153" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Gabri@prueba.com</v>
+      </c>
       <c r="D153" s="1" t="s">
         <v>561</v>
       </c>
@@ -6204,6 +6827,10 @@
       <c r="B154" t="s">
         <v>560</v>
       </c>
+      <c r="C154" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Gabri@prueba.com</v>
+      </c>
       <c r="D154" s="1" t="s">
         <v>561</v>
       </c>
@@ -6233,6 +6860,10 @@
       <c r="B155" t="s">
         <v>530</v>
       </c>
+      <c r="C155" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jorge@prueba.com</v>
+      </c>
       <c r="D155" s="1" t="s">
         <v>531</v>
       </c>
@@ -6259,6 +6890,10 @@
       <c r="B156" t="s">
         <v>565</v>
       </c>
+      <c r="C156" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
       <c r="D156" s="1" t="s">
         <v>535</v>
       </c>
@@ -6285,6 +6920,10 @@
       <c r="B157" t="s">
         <v>566</v>
       </c>
+      <c r="C157" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Gabri@prueba.com</v>
+      </c>
       <c r="D157" s="1" t="s">
         <v>561</v>
       </c>
@@ -6310,6 +6949,10 @@
       </c>
       <c r="B158" t="s">
         <v>409</v>
+      </c>
+      <c r="C158" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>André@prueba.com</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>410</v>
